--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Automation\Automation\ARCDataTemplete\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
   <si>
     <t>Start</t>
   </si>
@@ -464,6 +464,15 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -473,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,9 +1032,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,9 +1237,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,10 +1411,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,16 +1659,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1720,16 +1729,16 @@
         <v>123</v>
       </c>
       <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" t="s">
         <v>124</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1828,13 +1837,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Automation\Automation\ARCDataTemplete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242EAB51-112A-48D4-A918-7A9E40635076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38A290-C332-40CD-B16F-7CB4A33797EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" activeTab="4" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="165">
   <si>
     <t>Start</t>
   </si>
@@ -55,42 +55,6 @@
     <t>Reading2</t>
   </si>
   <si>
-    <t>May 01, 2018</t>
-  </si>
-  <si>
-    <t>Apr 01, 2018</t>
-  </si>
-  <si>
-    <t>Mar 01, 2018</t>
-  </si>
-  <si>
-    <t>Feb 01, 2018</t>
-  </si>
-  <si>
-    <t>Jan 01, 2018</t>
-  </si>
-  <si>
-    <t>Dec 01, 2017</t>
-  </si>
-  <si>
-    <t>May 31, 2018</t>
-  </si>
-  <si>
-    <t>Apr 30, 2018</t>
-  </si>
-  <si>
-    <t>Mar 31, 2018</t>
-  </si>
-  <si>
-    <t>Feb 28, 2018</t>
-  </si>
-  <si>
-    <t>Jan 31, 2018</t>
-  </si>
-  <si>
-    <t>Dec 31, 2017</t>
-  </si>
-  <si>
     <t>7655</t>
   </si>
   <si>
@@ -418,12 +382,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>Jan 31, 2019</t>
   </si>
   <si>
@@ -473,6 +431,111 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>Jan 01, 2019</t>
+  </si>
+  <si>
+    <t>Feb 01, 2019</t>
+  </si>
+  <si>
+    <t>Feb 28, 2019</t>
+  </si>
+  <si>
+    <t>Mar 01, 2019</t>
+  </si>
+  <si>
+    <t>Mar 31, 2019</t>
+  </si>
+  <si>
+    <t>Apr 01, 2019</t>
+  </si>
+  <si>
+    <t>Apr 30, 2019</t>
+  </si>
+  <si>
+    <t>May 01, 2019</t>
+  </si>
+  <si>
+    <t>Dec 31, 2019</t>
+  </si>
+  <si>
+    <t>Jun 01, 2019</t>
+  </si>
+  <si>
+    <t>Jul 01, 2019</t>
+  </si>
+  <si>
+    <t>Aug 01, 2019</t>
+  </si>
+  <si>
+    <t>Aug 31, 2019</t>
+  </si>
+  <si>
+    <t>Sep 01, 2019</t>
+  </si>
+  <si>
+    <t>Sep 30, 2019</t>
+  </si>
+  <si>
+    <t>Oct 01, 2019</t>
+  </si>
+  <si>
+    <t>Oct 31, 2019</t>
+  </si>
+  <si>
+    <t>Nov 01, 2019</t>
+  </si>
+  <si>
+    <t>Nov 30, 2019</t>
+  </si>
+  <si>
+    <t>Dec 01, 2019</t>
+  </si>
+  <si>
+    <t>Jan 01, 2020</t>
+  </si>
+  <si>
+    <t>Jan 31, 2020</t>
+  </si>
+  <si>
+    <t>Feb 01, 2020</t>
+  </si>
+  <si>
+    <t>Feb 28, 2020</t>
+  </si>
+  <si>
+    <t>Mar 01, 2020</t>
+  </si>
+  <si>
+    <t>Mar 31, 2020</t>
+  </si>
+  <si>
+    <t>Apr 01, 2020</t>
+  </si>
+  <si>
+    <t>Apr 30, 2020</t>
+  </si>
+  <si>
+    <t>May 01, 2020</t>
+  </si>
+  <si>
+    <t>Jun 01, 2020</t>
+  </si>
+  <si>
+    <t>Jun 30, 2019</t>
+  </si>
+  <si>
+    <t>May 31, 2019</t>
+  </si>
+  <si>
+    <t>Jul 31, 2019</t>
+  </si>
+  <si>
+    <t>May 31, 2020</t>
+  </si>
+  <si>
+    <t>Jun 30, 2020</t>
   </si>
 </sst>
 </file>
@@ -482,7 +545,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,17 +1087,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3125BF-5DAE-43B3-AF9B-37F59CC72EE8}">
-  <dimension ref="A1:D15"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B26" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,176 +1115,317 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
+    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
+      <c r="A8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>98</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C13">
-    <sortCondition descending="1" ref="A2:A13"/>
+  <sortState ref="A2:C25">
+    <sortCondition descending="1" ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1229,17 +1434,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26F577-841E-491A-919B-F53E0436FBD1}">
-  <dimension ref="A1:C14"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,146 +1460,278 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
+      <c r="A8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,18 +1741,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BD7E0-B2AF-4D65-AF9C-11C8122F3841}">
-  <dimension ref="A1:F15"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,215 +1770,379 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
+      <c r="A8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:D13">
@@ -1651,35 +2154,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BDA9-9CE0-49E8-B5D6-3D4F21FC017B}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
@@ -1688,138 +2192,138 @@
         <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="I2" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1829,21 +2333,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDF0BE-1200-4494-9417-9C6F68D86AB8}">
-  <dimension ref="A1:J14"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1860,304 +2365,472 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>95</v>
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
+      <c r="A8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="5" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38A290-C332-40CD-B16F-7CB4A33797EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D8096-B11D-4206-9D69-A8F83D8888C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" activeTab="4" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -1090,8 +1090,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="A2:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,6 +1125,9 @@
       <c r="C2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D2" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1136,6 +1139,9 @@
       <c r="C3" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1147,6 +1153,9 @@
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1158,7 +1167,9 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1170,7 +1181,9 @@
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1182,7 +1195,9 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1194,7 +1209,9 @@
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1266,9 +1283,6 @@
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1280,9 +1294,6 @@
       <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1294,11 +1305,8 @@
       <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -1308,11 +1316,8 @@
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
@@ -1322,11 +1327,8 @@
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
@@ -1336,11 +1338,8 @@
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
@@ -1350,11 +1349,8 @@
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -1365,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
   </sheetData>
@@ -1438,7 +1434,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1741,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,8 +2332,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D8096-B11D-4206-9D69-A8F83D8888C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795DB2A-FE5E-4B45-B7F9-46E4DDAB2F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" activeTab="4" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="165">
   <si>
     <t>Start</t>
   </si>
@@ -1090,7 +1090,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2332,8 +2332,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="5" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2674,6 +2674,9 @@
       <c r="D15" s="15" t="s">
         <v>119</v>
       </c>
+      <c r="G15" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2688,8 +2691,11 @@
       <c r="D16" s="15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -2702,8 +2708,11 @@
       <c r="D17" s="15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>131</v>
       </c>
@@ -2716,8 +2725,11 @@
       <c r="D18" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>130</v>
       </c>
@@ -2730,8 +2742,11 @@
       <c r="D19" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
@@ -2744,8 +2759,11 @@
       <c r="D20" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -2758,8 +2776,11 @@
       <c r="D21" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -2772,8 +2793,11 @@
       <c r="D22" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2786,8 +2810,11 @@
       <c r="D23" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2800,8 +2827,11 @@
       <c r="D24" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2844,11 @@
       <c r="D25" s="15" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -2827,6 +2860,9 @@
       </c>
       <c r="D26" s="15" t="s">
         <v>126</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="167">
   <si>
     <t>Start</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>Jun 30, 2020</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,9 +1102,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,9 +1445,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,10 +1752,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,16 +2165,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2226,10 +2232,10 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
         <v>128</v>
@@ -2338,13 +2344,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
   <si>
     <t>Start</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -2232,19 +2235,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="171">
   <si>
     <t>Start</t>
   </si>
@@ -545,6 +545,15 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -2235,19 +2244,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="172">
   <si>
     <t>Start</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -2244,19 +2247,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
         <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="172">
   <si>
     <t>Start</t>
   </si>
@@ -2247,19 +2247,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="174">
   <si>
     <t>Start</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -2247,19 +2253,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795DB2A-FE5E-4B45-B7F9-46E4DDAB2F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0062812D-A2A3-4C51-9F01-D8D0C843E4F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" activeTab="4" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Waste" sheetId="3" r:id="rId3"/>
     <sheet name="LEEDData" sheetId="7" r:id="rId4"/>
     <sheet name="HumanExp" sheetId="4" r:id="rId5"/>
+    <sheet name="Promocode" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
@@ -28,12 +29,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="195">
   <si>
     <t>Start</t>
   </si>
@@ -376,12 +378,6 @@
     <t>humanExperience</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Jan 31, 2019</t>
   </si>
   <si>
@@ -424,12 +420,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -541,38 +531,114 @@
     <t>31</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>RatingSystem</t>
+  </si>
+  <si>
+    <t>BuildingOther</t>
+  </si>
+  <si>
+    <t>BuildingNone</t>
+  </si>
+  <si>
+    <t>BuildingLEED</t>
+  </si>
+  <si>
+    <t>CityOther</t>
+  </si>
+  <si>
+    <t>CityNone</t>
+  </si>
+  <si>
+    <t>CityLEED</t>
+  </si>
+  <si>
+    <t>CommunityOther</t>
+  </si>
+  <si>
+    <t>CommunityNone</t>
+  </si>
+  <si>
+    <t>CommunityLEED</t>
+  </si>
+  <si>
+    <t>DiscountedFiftyPrice</t>
+  </si>
+  <si>
+    <t>DiscountedHundredPrice</t>
+  </si>
+  <si>
+    <t>$375.00</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>$5,000.00</t>
+  </si>
+  <si>
+    <t>$1,500.00</t>
+  </si>
+  <si>
+    <t>$ 1,500.00</t>
+  </si>
+  <si>
+    <t>3958880680052718</t>
+  </si>
+  <si>
+    <t>3320160077121355</t>
+  </si>
+  <si>
+    <t>1027012347121352</t>
+  </si>
+  <si>
+    <t>2690189870121353</t>
+  </si>
+  <si>
+    <t>3368813817121348</t>
+  </si>
+  <si>
+    <t>$2,500.00</t>
+  </si>
+  <si>
+    <t>1405106434121348</t>
+  </si>
+  <si>
+    <t>200988524121351</t>
+  </si>
+  <si>
+    <t>$750.00</t>
+  </si>
+  <si>
+    <t>2441644443052552</t>
+  </si>
+  <si>
+    <t>$187.50</t>
+  </si>
+  <si>
+    <t>STGPromocodesFifty</t>
+  </si>
+  <si>
+    <t>STGPromocodeHundred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,7 +753,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -710,6 +776,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,9 +1190,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1144,10 +1211,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
@@ -1158,10 +1225,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -1172,10 +1239,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
@@ -1186,10 +1253,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1200,10 +1267,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1214,10 +1281,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1228,10 +1295,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1242,10 +1309,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1254,10 +1321,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1266,10 +1333,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1278,10 +1345,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1290,10 +1357,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1302,10 +1369,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1313,10 +1380,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
@@ -1324,10 +1391,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>48</v>
@@ -1335,10 +1402,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1346,10 +1413,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1357,10 +1424,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1447,7 +1514,7 @@
       <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition descending="1" ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,9 +1533,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,10 +1551,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -1495,10 +1562,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>47</v>
@@ -1506,10 +1573,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>51</v>
@@ -1517,10 +1584,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1528,10 +1595,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1539,10 +1606,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1550,10 +1617,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1561,10 +1628,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1572,10 +1639,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1583,10 +1650,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1594,10 +1661,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1605,10 +1672,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1616,10 +1683,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1627,10 +1694,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>47</v>
@@ -1638,10 +1705,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>51</v>
@@ -1649,10 +1716,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1660,10 +1727,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1671,10 +1738,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1773,10 +1840,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1801,10 +1868,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1817,10 +1884,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -1833,10 +1900,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
@@ -1849,10 +1916,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -1865,10 +1932,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -1881,10 +1948,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -1897,10 +1964,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -1913,10 +1980,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1929,10 +1996,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1943,10 +2010,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1957,10 +2024,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1972,10 +2039,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1986,10 +2053,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>44</v>
@@ -2001,10 +2068,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -2015,10 +2082,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -2029,10 +2096,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2043,10 +2110,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -2057,10 +2124,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -2168,7 +2235,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="B2:B13" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2186,16 +2253,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2218,7 +2285,7 @@
         <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>106</v>
@@ -2244,7 +2311,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>97</v>
@@ -2253,19 +2320,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
         <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2276,7 +2343,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>97</v>
@@ -2290,7 +2357,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
@@ -2304,7 +2371,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>96</v>
@@ -2321,7 +2388,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,12 +2402,12 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -2359,19 +2426,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2400,21 +2467,21 @@
         <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -2433,16 +2500,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
@@ -2460,16 +2527,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
@@ -2484,16 +2551,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
@@ -2505,16 +2572,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
@@ -2529,16 +2596,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
@@ -2553,16 +2620,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
@@ -2575,16 +2642,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
@@ -2596,16 +2663,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="5" t="s">
@@ -2617,16 +2684,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="5" t="s">
@@ -2636,16 +2703,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="5" t="s">
@@ -2654,16 +2721,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="5" t="s">
@@ -2672,16 +2739,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="5" t="s">
@@ -2690,16 +2757,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>64</v>
@@ -2707,16 +2774,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>65</v>
@@ -2724,16 +2791,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>66</v>
@@ -2741,16 +2808,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>67</v>
@@ -2758,16 +2825,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>68</v>
@@ -2784,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>69</v>
@@ -2801,7 +2868,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>46</v>
@@ -2818,7 +2885,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>70</v>
@@ -2835,7 +2902,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>71</v>
@@ -2852,7 +2919,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>50</v>
@@ -2869,7 +2936,7 @@
         <v>80</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>72</v>
@@ -2886,7 +2953,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>73</v>
@@ -2896,4 +2963,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="174">
   <si>
     <t>Start</t>
   </si>
@@ -2253,19 +2253,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\ARCDataTemplete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E795DB2A-FE5E-4B45-B7F9-46E4DDAB2F27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F191DC49-028A-47CA-896D-FB5ABF2E8E26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" activeTab="4" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="Waste" sheetId="3" r:id="rId3"/>
     <sheet name="LEEDData" sheetId="7" r:id="rId4"/>
     <sheet name="HumanExp" sheetId="4" r:id="rId5"/>
+    <sheet name="Promocode" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
@@ -34,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="197">
   <si>
     <t>Start</t>
   </si>
@@ -376,12 +378,6 @@
     <t>humanExperience</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Jan 31, 2019</t>
   </si>
   <si>
@@ -424,12 +420,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -541,35 +531,117 @@
     <t>31</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>RatingSystem</t>
+  </si>
+  <si>
+    <t>BuildingOther</t>
+  </si>
+  <si>
+    <t>BuildingNone</t>
+  </si>
+  <si>
+    <t>BuildingLEED</t>
+  </si>
+  <si>
+    <t>CityOther</t>
+  </si>
+  <si>
+    <t>CityNone</t>
+  </si>
+  <si>
+    <t>CityLEED</t>
+  </si>
+  <si>
+    <t>CommunityOther</t>
+  </si>
+  <si>
+    <t>CommunityNone</t>
+  </si>
+  <si>
+    <t>CommunityLEED</t>
+  </si>
+  <si>
+    <t>DiscountedFiftyPrice</t>
+  </si>
+  <si>
+    <t>DiscountedHundredPrice</t>
+  </si>
+  <si>
+    <t>$375.00</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>$5,000.00</t>
+  </si>
+  <si>
+    <t>$1,500.00</t>
+  </si>
+  <si>
+    <t>$ 1,500.00</t>
+  </si>
+  <si>
+    <t>3958880680052718</t>
+  </si>
+  <si>
+    <t>3320160077121355</t>
+  </si>
+  <si>
+    <t>1027012347121352</t>
+  </si>
+  <si>
+    <t>2690189870121353</t>
+  </si>
+  <si>
+    <t>3368813817121348</t>
+  </si>
+  <si>
+    <t>$2,500.00</t>
+  </si>
+  <si>
+    <t>1405106434121348</t>
+  </si>
+  <si>
+    <t>200988524121351</t>
+  </si>
+  <si>
+    <t>$750.00</t>
+  </si>
+  <si>
+    <t>2441644443052552</t>
+  </si>
+  <si>
+    <t>$187.50</t>
+  </si>
+  <si>
+    <t>STGPromocodesFifty</t>
+  </si>
+  <si>
+    <t>STGPromocodeHundred</t>
+  </si>
+  <si>
+    <t>ProjectIDFifty</t>
+  </si>
+  <si>
+    <t>ProjectIDHundred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="5">
@@ -687,7 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -710,6 +782,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1144,10 +1217,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
@@ -1158,10 +1231,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -1172,10 +1245,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
@@ -1186,10 +1259,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1200,10 +1273,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1214,10 +1287,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1228,10 +1301,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1242,10 +1315,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1254,10 +1327,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1266,10 +1339,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1278,10 +1351,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1290,10 +1363,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1302,10 +1375,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1313,10 +1386,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
@@ -1324,10 +1397,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>48</v>
@@ -1335,10 +1408,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1346,10 +1419,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1357,10 +1430,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1447,7 +1520,7 @@
       <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
     <sortCondition descending="1" ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1484,10 +1557,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -1495,10 +1568,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>47</v>
@@ -1506,10 +1579,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>51</v>
@@ -1517,10 +1590,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1528,10 +1601,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1539,10 +1612,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1550,10 +1623,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1561,10 +1634,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1572,10 +1645,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1583,10 +1656,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1594,10 +1667,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1605,10 +1678,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1616,10 +1689,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1627,10 +1700,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>47</v>
@@ -1638,10 +1711,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>51</v>
@@ -1649,10 +1722,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1660,10 +1733,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1671,10 +1744,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1801,10 +1874,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -1817,10 +1890,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -1833,10 +1906,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
@@ -1849,10 +1922,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -1865,10 +1938,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -1881,10 +1954,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -1897,10 +1970,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -1913,10 +1986,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1929,10 +2002,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1943,10 +2016,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1957,10 +2030,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -1972,10 +2045,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1986,10 +2059,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>44</v>
@@ -2001,10 +2074,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -2015,10 +2088,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -2029,10 +2102,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2043,10 +2116,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -2057,10 +2130,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -2168,7 +2241,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="B2:B13" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2191,11 +2264,11 @@
     <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2218,7 +2291,7 @@
         <v>105</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>106</v>
@@ -2244,7 +2317,7 @@
         <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>97</v>
@@ -2253,19 +2326,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2276,7 +2349,7 @@
         <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>97</v>
@@ -2290,7 +2363,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>20</v>
@@ -2304,7 +2377,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>96</v>
@@ -2321,7 +2394,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2335,12 +2408,12 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>39</v>
@@ -2359,7 +2432,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2400,21 +2473,21 @@
         <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -2433,16 +2506,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
@@ -2460,16 +2533,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
@@ -2484,16 +2557,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
@@ -2505,16 +2578,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
@@ -2529,16 +2602,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
@@ -2553,16 +2626,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
@@ -2575,16 +2648,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
@@ -2596,16 +2669,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="5" t="s">
@@ -2617,16 +2690,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="5" t="s">
@@ -2636,16 +2709,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="5" t="s">
@@ -2654,16 +2727,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="5" t="s">
@@ -2672,16 +2745,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="5" t="s">
@@ -2690,16 +2763,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>64</v>
@@ -2707,16 +2780,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>65</v>
@@ -2724,16 +2797,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>66</v>
@@ -2741,16 +2814,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>67</v>
@@ -2758,16 +2831,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>68</v>
@@ -2784,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>69</v>
@@ -2801,7 +2874,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>46</v>
@@ -2818,7 +2891,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>70</v>
@@ -2835,7 +2908,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>71</v>
@@ -2852,7 +2925,7 @@
         <v>61</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>50</v>
@@ -2869,7 +2942,7 @@
         <v>80</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>72</v>
@@ -2886,7 +2959,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>73</v>
@@ -2896,4 +2969,251 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="13.03125" collapsed="false" bestFit="true"/>
+    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F191DC49-028A-47CA-896D-FB5ABF2E8E26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4440F-29EF-453E-BB17-E85CA1CF8C55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="201">
   <si>
     <t>Start</t>
   </si>
@@ -634,6 +634,18 @@
   </si>
   <si>
     <t>ProjectIDHundred</t>
+  </si>
+  <si>
+    <t>1000168340</t>
+  </si>
+  <si>
+    <t>1000168341</t>
+  </si>
+  <si>
+    <t>1000168344</t>
+  </si>
+  <si>
+    <t>1000168345</t>
   </si>
 </sst>
 </file>
@@ -2976,18 +2988,18 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="13.03125" collapsed="false" bestFit="true"/>
-    <col min="7" max="7" customWidth="true" width="22.42578125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.03125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.96484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,7 +3042,10 @@
         <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>90</v>
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,7 +3064,12 @@
       <c r="E3" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF4440F-29EF-453E-BB17-E85CA1CF8C55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C6301-B241-4AA2-BDAB-F36A616C44D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="203">
   <si>
     <t>Start</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>1000168345</t>
+  </si>
+  <si>
+    <t>STGPromocodeHundredReview</t>
+  </si>
+  <si>
+    <t>STGPromocodesFiftyReview</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,9 +1214,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,9 +1557,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,10 +1864,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,16 +2277,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,13 +2456,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2985,24 +2991,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.03125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.96484375" collapsed="true"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -3024,8 +3032,14 @@
       <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -3048,7 +3062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -3085,7 +3099,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -3125,7 +3139,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -3165,7 +3179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -3199,7 +3213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -3219,7 +3233,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462C6301-B241-4AA2-BDAB-F36A616C44D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074121B-BA76-43EF-A9B4-2AE6321ACBC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="212">
   <si>
     <t>Start</t>
   </si>
@@ -636,22 +636,49 @@
     <t>ProjectIDHundred</t>
   </si>
   <si>
-    <t>1000168340</t>
-  </si>
-  <si>
-    <t>1000168341</t>
-  </si>
-  <si>
-    <t>1000168344</t>
-  </si>
-  <si>
-    <t>1000168345</t>
-  </si>
-  <si>
     <t>STGPromocodeHundredReview</t>
   </si>
   <si>
     <t>STGPromocodesFiftyReview</t>
+  </si>
+  <si>
+    <t>390819498101543</t>
+  </si>
+  <si>
+    <t>1202595902101538</t>
+  </si>
+  <si>
+    <t>DiscountedFiftyPriceReview</t>
+  </si>
+  <si>
+    <t>$ 1125.00</t>
+  </si>
+  <si>
+    <t>$ 1140.00</t>
+  </si>
+  <si>
+    <t>QASPromocodeHundredReview</t>
+  </si>
+  <si>
+    <t>QASPromocodesFiftyReview</t>
+  </si>
+  <si>
+    <t>901487032135353</t>
+  </si>
+  <si>
+    <t>1454952384135351</t>
+  </si>
+  <si>
+    <t>1000168691</t>
+  </si>
+  <si>
+    <t>1000168692</t>
+  </si>
+  <si>
+    <t>1000168694</t>
+  </si>
+  <si>
+    <t>1000168696</t>
   </si>
 </sst>
 </file>
@@ -2991,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,13 +3031,16 @@
     <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -3033,13 +3063,22 @@
         <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -3056,13 +3095,28 @@
         <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -3079,13 +3133,28 @@
         <v>176</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>167</v>
       </c>
@@ -3099,7 +3168,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -3116,10 +3185,28 @@
         <v>176</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -3139,7 +3226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -3159,7 +3246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -3179,7 +3266,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>170</v>
       </c>
@@ -3193,7 +3280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>171</v>
       </c>
@@ -3213,7 +3300,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>172</v>
       </c>
@@ -3233,7 +3320,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074121B-BA76-43EF-A9B4-2AE6321ACBC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5F6A4-EA20-425F-8285-DE5624CF3857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -685,11 +685,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +722,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -804,7 +811,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -816,8 +823,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -828,6 +833,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,10 +1354,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1485,10 +1494,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1667,10 +1676,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1799,10 +1808,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1885,8 +1894,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,8 +1939,12 @@
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1946,8 +1959,12 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1962,8 +1979,12 @@
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1978,8 +1999,12 @@
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1994,8 +2019,12 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2010,14 +2039,18 @@
       <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2026,8 +2059,12 @@
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2042,8 +2079,12 @@
       <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2058,6 +2099,12 @@
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="15">
+        <v>1.92</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2072,6 +2119,12 @@
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E11" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2086,7 +2139,12 @@
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2101,6 +2159,12 @@
       <c r="D13" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="E13" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.56999999999999995</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2115,7 +2179,12 @@
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2130,6 +2199,12 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="E15" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2144,8 +2219,14 @@
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="15">
+        <v>0.13</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>129</v>
       </c>
@@ -2158,8 +2239,14 @@
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
@@ -2172,8 +2259,14 @@
       <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>126</v>
       </c>
@@ -2186,12 +2279,18 @@
       <c r="D19" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="E19" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2200,8 +2299,14 @@
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="15">
+        <v>1.92</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
@@ -2214,8 +2319,14 @@
       <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -2228,8 +2339,14 @@
       <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2242,8 +2359,14 @@
       <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="15">
+        <v>0.123</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -2256,8 +2379,14 @@
       <c r="D24" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="15">
+        <v>0.45</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -2270,8 +2399,14 @@
       <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="15">
+        <v>1.92</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -2283,12 +2418,28 @@
       </c>
       <c r="D26" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.87</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.81</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="B2:B13" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Waste diverted cannot be greater than waste generated" sqref="F2:F26" xr:uid="{ACD7E6BA-4A40-4A94-960F-565C2050A812}">
+      <formula1>0</formula1>
+      <formula2>E2</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid reading." sqref="E2:E26" xr:uid="{8770E52E-8D64-4C36-810F-F26B86F8CB26}">
+      <formula1>0</formula1>
+      <formula2>99999999</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2317,40 +2468,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2531,7 +2682,7 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="6"/>
@@ -2547,7 +2698,7 @@
       <c r="I2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2559,7 +2710,7 @@
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>117</v>
       </c>
       <c r="E3" s="6"/>
@@ -2586,7 +2737,7 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="6"/>
@@ -2610,7 +2761,7 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>119</v>
       </c>
       <c r="E5" s="6"/>
@@ -2631,7 +2782,7 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="6"/>
@@ -2655,7 +2806,7 @@
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>121</v>
       </c>
       <c r="E7" s="6"/>
@@ -2670,16 +2821,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="6"/>
@@ -2701,7 +2852,7 @@
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="6"/>
@@ -2722,7 +2873,7 @@
       <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E10" s="6"/>
@@ -2743,7 +2894,7 @@
       <c r="C11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="6"/>
@@ -2762,7 +2913,7 @@
       <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E12" s="6"/>
@@ -2780,7 +2931,7 @@
       <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="6"/>
@@ -2798,7 +2949,7 @@
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="6"/>
@@ -2816,7 +2967,7 @@
       <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>117</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2833,7 +2984,7 @@
       <c r="C16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>118</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2850,7 +3001,7 @@
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2867,7 +3018,7 @@
       <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2884,7 +3035,7 @@
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2892,16 +3043,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2918,7 +3069,7 @@
       <c r="C21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2935,7 +3086,7 @@
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2952,7 +3103,7 @@
       <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2969,7 +3120,7 @@
       <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -2986,7 +3137,7 @@
       <c r="C25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -3003,7 +3154,7 @@
       <c r="C26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>124</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -3020,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -3091,7 +3242,7 @@
       <c r="D2" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>176</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -3129,7 +3280,7 @@
       <c r="D3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>176</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -3161,7 +3312,7 @@
       <c r="C4" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>181</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3181,7 +3332,7 @@
       <c r="D5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>176</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -3219,7 +3370,7 @@
       <c r="D6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>180</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -3239,7 +3390,7 @@
       <c r="D7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -3259,7 +3410,7 @@
       <c r="D8" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -3273,7 +3424,7 @@
       <c r="C9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -3293,7 +3444,7 @@
       <c r="D10" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -3313,7 +3464,7 @@
       <c r="D11" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -3327,7 +3478,7 @@
       <c r="C12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>179</v>
       </c>
       <c r="F12" s="5" t="s">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5F6A4-EA20-425F-8285-DE5624CF3857}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{EF3683C4-8501-45B9-86F0-5CD5CE0C2B54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
     <definedName name="ReadingTable">'[1]CO2 Readings'!$15:$16</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -684,7 +683,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
@@ -840,17 +839,17 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2 2" xfId="5"/>
+    <cellStyle name="Normal 2 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="6"/>
+    <cellStyle name="Normal 5" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1240,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3125BF-5DAE-43B3-AF9B-37F59CC72EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -1574,7 +1573,7 @@
       <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+  <sortState ref="A2:C25">
     <sortCondition descending="1" ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1583,7 +1582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F26F577-841E-491A-919B-F53E0436FBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -1890,12 +1889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2BD7E0-B2AF-4D65-AF9C-11C8122F3841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,10 +2059,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="15">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
       <c r="F8" s="15">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,10 +2259,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="15">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
       <c r="F18" s="15">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,10 +2359,10 @@
         <v>18</v>
       </c>
       <c r="E23" s="15">
-        <v>0.123</v>
+        <v>0.12</v>
       </c>
       <c r="F23" s="15">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2427,15 +2426,15 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
+  <sortState ref="A2:D13">
     <sortCondition ref="B2:B13" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Waste diverted cannot be greater than waste generated" sqref="F2:F26" xr:uid="{ACD7E6BA-4A40-4A94-960F-565C2050A812}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Waste diverted cannot be greater than waste generated" sqref="F2:F26">
       <formula1>0</formula1>
       <formula2>E2</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid reading." sqref="E2:E26" xr:uid="{8770E52E-8D64-4C36-810F-F26B86F8CB26}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid reading." sqref="E2:E26">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
@@ -2445,7 +2444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD2BDA9-9CE0-49E8-B5D6-3D4F21FC017B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -2624,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDF0BE-1200-4494-9417-9C6F68D86AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -3168,7 +3167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E710388-26F7-426E-B67A-9D4F3F80EEDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -9,24 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
     <sheet name="Water" sheetId="2" r:id="rId2"/>
     <sheet name="Waste" sheetId="3" r:id="rId3"/>
-    <sheet name="LEEDData" sheetId="7" r:id="rId4"/>
-    <sheet name="HumanExp" sheetId="4" r:id="rId5"/>
-    <sheet name="Promocode" sheetId="8" r:id="rId6"/>
+    <sheet name="Improvement" sheetId="9" r:id="rId4"/>
+    <sheet name="LEEDData" sheetId="7" r:id="rId5"/>
+    <sheet name="HumanExp" sheetId="4" r:id="rId6"/>
+    <sheet name="Promocode" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
     <definedName name="ReadingTable">'[1]CO2 Readings'!$15:$16</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="212">
   <si>
     <t>Start</t>
   </si>
@@ -684,12 +686,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +729,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -810,7 +819,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -833,6 +842,14 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -860,6 +877,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>742950</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Delete Rows</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,6 +1033,68 @@
       <sheetData sheetId="22" refreshError="1"/>
       <sheetData sheetId="23" refreshError="1"/>
       <sheetData sheetId="24" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Instructions"/>
+      <sheetName val="Building Settings"/>
+      <sheetName val="base_w"/>
+      <sheetName val="base_e"/>
+      <sheetName val="base_f"/>
+      <sheetName val="CO2 Reading for Upload"/>
+      <sheetName val="CO2 Readings"/>
+      <sheetName val="TVOC Reading for Upload"/>
+      <sheetName val="TVOC Readings"/>
+      <sheetName val="Waste Stream"/>
+      <sheetName val="Carbon Monoxide"/>
+      <sheetName val="Ozone"/>
+      <sheetName val="Atmospheric Particulate Matter"/>
+      <sheetName val="Acetaldehyde"/>
+      <sheetName val="Benzene"/>
+      <sheetName val="Styrene"/>
+      <sheetName val="Toluene"/>
+      <sheetName val="Naphthalene "/>
+      <sheetName val="Dichlorobenzene"/>
+      <sheetName val="Xylenes-total"/>
+      <sheetName val="Formaldehyde"/>
+      <sheetName val="Test Energy Meter"/>
+      <sheetName val="Test Water Meter"/>
+      <sheetName val="base_summary"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="Button13_Click"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1244,7 +1401,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,7 +2050,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -2444,6 +2601,449 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>43739</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43769</v>
+      </c>
+      <c r="C2" s="17">
+        <v>250</v>
+      </c>
+      <c r="D2" s="17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>43709</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43738</v>
+      </c>
+      <c r="C3" s="17">
+        <v>150</v>
+      </c>
+      <c r="D3" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>43678</v>
+      </c>
+      <c r="B4" s="16">
+        <v>43708</v>
+      </c>
+      <c r="C4" s="17">
+        <v>100</v>
+      </c>
+      <c r="D4" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>43647</v>
+      </c>
+      <c r="B5" s="16">
+        <v>43677</v>
+      </c>
+      <c r="C5" s="17">
+        <v>200</v>
+      </c>
+      <c r="D5" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>43617</v>
+      </c>
+      <c r="B6" s="16">
+        <v>43646</v>
+      </c>
+      <c r="C6" s="17">
+        <v>240</v>
+      </c>
+      <c r="D6" s="17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43616</v>
+      </c>
+      <c r="C7" s="17">
+        <v>150</v>
+      </c>
+      <c r="D7" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>43556</v>
+      </c>
+      <c r="B8" s="16">
+        <v>43585</v>
+      </c>
+      <c r="C8" s="17">
+        <v>193</v>
+      </c>
+      <c r="D8" s="17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43525</v>
+      </c>
+      <c r="B9" s="16">
+        <v>43555</v>
+      </c>
+      <c r="C9" s="17">
+        <v>410</v>
+      </c>
+      <c r="D9" s="17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>43497</v>
+      </c>
+      <c r="B10" s="16">
+        <v>43524</v>
+      </c>
+      <c r="C10" s="17">
+        <v>630</v>
+      </c>
+      <c r="D10" s="17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>43466</v>
+      </c>
+      <c r="B11" s="16">
+        <v>43496</v>
+      </c>
+      <c r="C11" s="17">
+        <v>710</v>
+      </c>
+      <c r="D11" s="17">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>43435</v>
+      </c>
+      <c r="B12" s="16">
+        <v>43465</v>
+      </c>
+      <c r="C12" s="17">
+        <v>882</v>
+      </c>
+      <c r="D12" s="17">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>43405</v>
+      </c>
+      <c r="B13" s="16">
+        <v>43434</v>
+      </c>
+      <c r="C13" s="17">
+        <v>439</v>
+      </c>
+      <c r="D13" s="17">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>43374</v>
+      </c>
+      <c r="B14" s="16">
+        <v>43404</v>
+      </c>
+      <c r="C14" s="17">
+        <v>432</v>
+      </c>
+      <c r="D14" s="17">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>43344</v>
+      </c>
+      <c r="B15" s="16">
+        <v>43373</v>
+      </c>
+      <c r="C15" s="17">
+        <v>160</v>
+      </c>
+      <c r="D15" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>43313</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43343</v>
+      </c>
+      <c r="C16" s="17">
+        <v>100</v>
+      </c>
+      <c r="D16" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>43282</v>
+      </c>
+      <c r="B17" s="16">
+        <v>43312</v>
+      </c>
+      <c r="C17" s="17">
+        <v>200</v>
+      </c>
+      <c r="D17" s="17">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>43252</v>
+      </c>
+      <c r="B18" s="16">
+        <v>43281</v>
+      </c>
+      <c r="C18" s="17">
+        <v>240</v>
+      </c>
+      <c r="D18" s="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>43221</v>
+      </c>
+      <c r="B19" s="16">
+        <v>43251</v>
+      </c>
+      <c r="C19" s="17">
+        <v>150</v>
+      </c>
+      <c r="D19" s="17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>43191</v>
+      </c>
+      <c r="B20" s="16">
+        <v>43220</v>
+      </c>
+      <c r="C20" s="17">
+        <v>193</v>
+      </c>
+      <c r="D20" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>43160</v>
+      </c>
+      <c r="B21" s="16">
+        <v>43190</v>
+      </c>
+      <c r="C21" s="17">
+        <v>410</v>
+      </c>
+      <c r="D21" s="17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>43132</v>
+      </c>
+      <c r="B22" s="16">
+        <v>43159</v>
+      </c>
+      <c r="C22" s="17">
+        <v>630</v>
+      </c>
+      <c r="D22" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>43101</v>
+      </c>
+      <c r="B23" s="16">
+        <v>43131</v>
+      </c>
+      <c r="C23" s="17">
+        <v>710</v>
+      </c>
+      <c r="D23" s="17">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>43070</v>
+      </c>
+      <c r="B24" s="16">
+        <v>43100</v>
+      </c>
+      <c r="C24" s="17">
+        <v>882</v>
+      </c>
+      <c r="D24" s="17">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>43040</v>
+      </c>
+      <c r="B25" s="16">
+        <v>43069</v>
+      </c>
+      <c r="C25" s="17">
+        <v>439</v>
+      </c>
+      <c r="D25" s="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>43009</v>
+      </c>
+      <c r="B26" s="16">
+        <v>43039</v>
+      </c>
+      <c r="C26" s="17">
+        <v>432</v>
+      </c>
+      <c r="D26" s="17">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>42979</v>
+      </c>
+      <c r="B27" s="16">
+        <v>43008</v>
+      </c>
+      <c r="C27" s="17">
+        <v>772</v>
+      </c>
+      <c r="D27" s="17">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date in mm/dd/yyyy format." sqref="A2:B27">
+      <formula1>1</formula1>
+      <formula2>73415</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid reading." sqref="C2:C27">
+      <formula1>0</formula1>
+      <formula2>9999999999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Waste diverted cannot be greater than waste generated" sqref="D2:D27">
+      <formula1>0</formula1>
+      <formula2>C2</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!Button13_Click">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>742950</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L8"/>
@@ -2622,7 +3222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
@@ -3166,7 +3766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="213">
   <si>
     <t>Start</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>1000168696</t>
+  </si>
+  <si>
+    <t>=SUM(D4:D13)</t>
   </si>
 </sst>
 </file>
@@ -1066,6 +1069,7 @@
       <sheetName val="Test Energy Meter"/>
       <sheetName val="Test Water Meter"/>
       <sheetName val="base_summary"/>
+      <sheetName val="Arc_Data_Template_building_v4"/>
     </sheetNames>
     <definedNames>
       <definedName name="Button13_Click"/>
@@ -1095,6 +1099,7 @@
       <sheetData sheetId="21"/>
       <sheetData sheetId="22"/>
       <sheetData sheetId="23"/>
+      <sheetData sheetId="24" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2602,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,6 +2997,11 @@
       </c>
       <c r="D27" s="17">
         <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3010,14 +3020,15 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="Button 1">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!Button13_Click">
                 <anchor moveWithCells="1">
                   <from>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
     <sheet name="Water" sheetId="2" r:id="rId2"/>
     <sheet name="Waste" sheetId="3" r:id="rId3"/>
-    <sheet name="Improvement" sheetId="9" r:id="rId4"/>
-    <sheet name="LEEDData" sheetId="7" r:id="rId5"/>
+    <sheet name="LEEDData" sheetId="7" r:id="rId4"/>
+    <sheet name="Improvement" sheetId="10" r:id="rId5"/>
     <sheet name="HumanExp" sheetId="4" r:id="rId6"/>
     <sheet name="Promocode" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="281">
   <si>
     <t>Start</t>
   </si>
@@ -682,20 +681,223 @@
     <t>1000168696</t>
   </si>
   <si>
-    <t>=SUM(D4:D13)</t>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>10/31/2019</t>
+  </si>
+  <si>
+    <t>09/01/2019</t>
+  </si>
+  <si>
+    <t>09/30/2019</t>
+  </si>
+  <si>
+    <t>08/01/2019</t>
+  </si>
+  <si>
+    <t>08/31/2019</t>
+  </si>
+  <si>
+    <t>07/01/2019</t>
+  </si>
+  <si>
+    <t>07/31/2019</t>
+  </si>
+  <si>
+    <t>06/01/2019</t>
+  </si>
+  <si>
+    <t>06/30/2019</t>
+  </si>
+  <si>
+    <t>05/01/2019</t>
+  </si>
+  <si>
+    <t>05/31/2019</t>
+  </si>
+  <si>
+    <t>04/01/2019</t>
+  </si>
+  <si>
+    <t>04/30/2019</t>
+  </si>
+  <si>
+    <t>03/01/2019</t>
+  </si>
+  <si>
+    <t>03/31/2019</t>
+  </si>
+  <si>
+    <t>02/01/2019</t>
+  </si>
+  <si>
+    <t>02/28/2019</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>01/31/2019</t>
+  </si>
+  <si>
+    <t>12/01/2018</t>
+  </si>
+  <si>
+    <t>12/31/2018</t>
+  </si>
+  <si>
+    <t>11/01/2018</t>
+  </si>
+  <si>
+    <t>11/30/2018</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>09/30/2018</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>06/ 01/2018</t>
+  </si>
+  <si>
+    <t>11/01/2019</t>
+  </si>
+  <si>
+    <t>12/01/2019</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>02/01/2020</t>
+  </si>
+  <si>
+    <t>03/01/2020</t>
+  </si>
+  <si>
+    <t>04/01/2020</t>
+  </si>
+  <si>
+    <t>05/01/2020</t>
+  </si>
+  <si>
+    <t>06/01/2020</t>
+  </si>
+  <si>
+    <t>06/30/2020</t>
+  </si>
+  <si>
+    <t>05/31/2020</t>
+  </si>
+  <si>
+    <t>04/30/2020</t>
+  </si>
+  <si>
+    <t>02/28/2020</t>
+  </si>
+  <si>
+    <t>01/31/2020</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
+  </si>
+  <si>
+    <t>11/30/2019</t>
+  </si>
+  <si>
+    <t>2019-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,12 +934,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -822,7 +1018,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -845,14 +1041,6 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -880,84 +1068,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>742950</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002180000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri"/>
-                  <a:cs typeface="Calibri"/>
-                </a:rPr>
-                <a:t>Delete Rows</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,70 +1145,6 @@
       <sheetData sheetId="21" refreshError="1"/>
       <sheetData sheetId="22" refreshError="1"/>
       <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Instructions"/>
-      <sheetName val="Building Settings"/>
-      <sheetName val="base_w"/>
-      <sheetName val="base_e"/>
-      <sheetName val="base_f"/>
-      <sheetName val="CO2 Reading for Upload"/>
-      <sheetName val="CO2 Readings"/>
-      <sheetName val="TVOC Reading for Upload"/>
-      <sheetName val="TVOC Readings"/>
-      <sheetName val="Waste Stream"/>
-      <sheetName val="Carbon Monoxide"/>
-      <sheetName val="Ozone"/>
-      <sheetName val="Atmospheric Particulate Matter"/>
-      <sheetName val="Acetaldehyde"/>
-      <sheetName val="Benzene"/>
-      <sheetName val="Styrene"/>
-      <sheetName val="Toluene"/>
-      <sheetName val="Naphthalene "/>
-      <sheetName val="Dichlorobenzene"/>
-      <sheetName val="Xylenes-total"/>
-      <sheetName val="Formaldehyde"/>
-      <sheetName val="Test Energy Meter"/>
-      <sheetName val="Test Water Meter"/>
-      <sheetName val="base_summary"/>
-      <sheetName val="Arc_Data_Template_building_v4"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Button13_Click"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
       <sheetData sheetId="24" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1406,7 +1452,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,10 +1478,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
@@ -1446,10 +1492,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -1460,10 +1506,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
@@ -1474,10 +1520,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1488,10 +1534,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1502,10 +1548,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1515,11 +1561,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>134</v>
+      <c r="A8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1530,10 +1576,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1542,10 +1588,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1554,10 +1600,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1566,10 +1612,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1578,10 +1624,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1590,10 +1636,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1601,10 +1647,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
@@ -1612,10 +1658,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>48</v>
@@ -1623,10 +1669,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1634,10 +1680,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1645,21 +1691,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
+      <c r="A20" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -1667,10 +1713,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -1678,10 +1724,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -1689,10 +1735,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -1700,10 +1746,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -1711,10 +1757,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -1722,10 +1768,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -1749,7 +1795,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,10 +1818,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -1783,10 +1829,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>47</v>
@@ -1794,10 +1840,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>51</v>
@@ -1805,10 +1851,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1816,10 +1862,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1827,21 +1873,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>134</v>
+      <c r="A8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1849,10 +1895,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1860,10 +1906,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1871,10 +1917,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1882,10 +1928,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1893,10 +1939,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1904,10 +1950,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1915,10 +1961,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>47</v>
@@ -1926,10 +1972,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>51</v>
@@ -1937,10 +1983,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1948,10 +1994,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1959,21 +2005,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
+      <c r="A20" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -1981,10 +2027,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -1992,10 +2038,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -2003,10 +2049,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -2014,10 +2060,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -2025,10 +2071,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -2036,10 +2082,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -2056,7 +2102,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,10 +2135,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -2109,10 +2155,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>271</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -2129,10 +2175,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
@@ -2149,10 +2195,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -2169,10 +2215,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -2189,10 +2235,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -2208,11 +2254,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>134</v>
+      <c r="A8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>278</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -2229,10 +2275,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>265</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -2249,10 +2295,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -2269,10 +2315,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -2289,10 +2335,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -2309,10 +2355,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -2329,10 +2375,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>44</v>
@@ -2349,10 +2395,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -2369,10 +2415,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -2389,10 +2435,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2409,10 +2455,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -2429,10 +2475,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -2448,11 +2494,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>83</v>
+      <c r="A20" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -2469,10 +2515,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2489,10 +2535,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -2509,10 +2555,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -2529,10 +2575,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -2549,10 +2595,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -2569,10 +2615,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>44</v>
@@ -2606,455 +2652,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>43739</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43769</v>
-      </c>
-      <c r="C2" s="17">
-        <v>250</v>
-      </c>
-      <c r="D2" s="17">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>43709</v>
-      </c>
-      <c r="B3" s="16">
-        <v>43738</v>
-      </c>
-      <c r="C3" s="17">
-        <v>150</v>
-      </c>
-      <c r="D3" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>43678</v>
-      </c>
-      <c r="B4" s="16">
-        <v>43708</v>
-      </c>
-      <c r="C4" s="17">
-        <v>100</v>
-      </c>
-      <c r="D4" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>43647</v>
-      </c>
-      <c r="B5" s="16">
-        <v>43677</v>
-      </c>
-      <c r="C5" s="17">
-        <v>200</v>
-      </c>
-      <c r="D5" s="17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>43617</v>
-      </c>
-      <c r="B6" s="16">
-        <v>43646</v>
-      </c>
-      <c r="C6" s="17">
-        <v>240</v>
-      </c>
-      <c r="D6" s="17">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>43586</v>
-      </c>
-      <c r="B7" s="16">
-        <v>43616</v>
-      </c>
-      <c r="C7" s="17">
-        <v>150</v>
-      </c>
-      <c r="D7" s="17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>43556</v>
-      </c>
-      <c r="B8" s="16">
-        <v>43585</v>
-      </c>
-      <c r="C8" s="17">
-        <v>193</v>
-      </c>
-      <c r="D8" s="17">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>43525</v>
-      </c>
-      <c r="B9" s="16">
-        <v>43555</v>
-      </c>
-      <c r="C9" s="17">
-        <v>410</v>
-      </c>
-      <c r="D9" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <v>43497</v>
-      </c>
-      <c r="B10" s="16">
-        <v>43524</v>
-      </c>
-      <c r="C10" s="17">
-        <v>630</v>
-      </c>
-      <c r="D10" s="17">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <v>43466</v>
-      </c>
-      <c r="B11" s="16">
-        <v>43496</v>
-      </c>
-      <c r="C11" s="17">
-        <v>710</v>
-      </c>
-      <c r="D11" s="17">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>43435</v>
-      </c>
-      <c r="B12" s="16">
-        <v>43465</v>
-      </c>
-      <c r="C12" s="17">
-        <v>882</v>
-      </c>
-      <c r="D12" s="17">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>43405</v>
-      </c>
-      <c r="B13" s="16">
-        <v>43434</v>
-      </c>
-      <c r="C13" s="17">
-        <v>439</v>
-      </c>
-      <c r="D13" s="17">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
-        <v>43374</v>
-      </c>
-      <c r="B14" s="16">
-        <v>43404</v>
-      </c>
-      <c r="C14" s="17">
-        <v>432</v>
-      </c>
-      <c r="D14" s="17">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>43344</v>
-      </c>
-      <c r="B15" s="16">
-        <v>43373</v>
-      </c>
-      <c r="C15" s="17">
-        <v>160</v>
-      </c>
-      <c r="D15" s="17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>43313</v>
-      </c>
-      <c r="B16" s="16">
-        <v>43343</v>
-      </c>
-      <c r="C16" s="17">
-        <v>100</v>
-      </c>
-      <c r="D16" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
-        <v>43282</v>
-      </c>
-      <c r="B17" s="16">
-        <v>43312</v>
-      </c>
-      <c r="C17" s="17">
-        <v>200</v>
-      </c>
-      <c r="D17" s="17">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
-        <v>43252</v>
-      </c>
-      <c r="B18" s="16">
-        <v>43281</v>
-      </c>
-      <c r="C18" s="17">
-        <v>240</v>
-      </c>
-      <c r="D18" s="17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
-        <v>43221</v>
-      </c>
-      <c r="B19" s="16">
-        <v>43251</v>
-      </c>
-      <c r="C19" s="17">
-        <v>150</v>
-      </c>
-      <c r="D19" s="17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
-        <v>43191</v>
-      </c>
-      <c r="B20" s="16">
-        <v>43220</v>
-      </c>
-      <c r="C20" s="17">
-        <v>193</v>
-      </c>
-      <c r="D20" s="17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
-        <v>43160</v>
-      </c>
-      <c r="B21" s="16">
-        <v>43190</v>
-      </c>
-      <c r="C21" s="17">
-        <v>410</v>
-      </c>
-      <c r="D21" s="17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
-        <v>43132</v>
-      </c>
-      <c r="B22" s="16">
-        <v>43159</v>
-      </c>
-      <c r="C22" s="17">
-        <v>630</v>
-      </c>
-      <c r="D22" s="17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
-        <v>43101</v>
-      </c>
-      <c r="B23" s="16">
-        <v>43131</v>
-      </c>
-      <c r="C23" s="17">
-        <v>710</v>
-      </c>
-      <c r="D23" s="17">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
-        <v>43070</v>
-      </c>
-      <c r="B24" s="16">
-        <v>43100</v>
-      </c>
-      <c r="C24" s="17">
-        <v>882</v>
-      </c>
-      <c r="D24" s="17">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
-        <v>43040</v>
-      </c>
-      <c r="B25" s="16">
-        <v>43069</v>
-      </c>
-      <c r="C25" s="17">
-        <v>439</v>
-      </c>
-      <c r="D25" s="17">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>43009</v>
-      </c>
-      <c r="B26" s="16">
-        <v>43039</v>
-      </c>
-      <c r="C26" s="17">
-        <v>432</v>
-      </c>
-      <c r="D26" s="17">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>42979</v>
-      </c>
-      <c r="B27" s="16">
-        <v>43008</v>
-      </c>
-      <c r="C27" s="17">
-        <v>772</v>
-      </c>
-      <c r="D27" s="17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date in mm/dd/yyyy format." sqref="A2:B27">
-      <formula1>1</formula1>
-      <formula2>73415</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid reading." sqref="C2:C27">
-      <formula1>0</formula1>
-      <formula2>9999999999</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Waste diverted cannot be greater than waste generated" sqref="D2:D27">
-      <formula1>0</formula1>
-      <formula2>C2</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Button 1">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!Button13_Click">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>742950</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L8"/>
@@ -3230,6 +2827,456 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="3">
+        <v>250</v>
+      </c>
+      <c r="D2" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3">
+        <v>150</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="3">
+        <v>240</v>
+      </c>
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="3">
+        <v>150</v>
+      </c>
+      <c r="D7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="3">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3">
+        <v>93</v>
+      </c>
+      <c r="H8" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="3">
+        <v>410</v>
+      </c>
+      <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="3">
+        <v>630</v>
+      </c>
+      <c r="D10" s="3">
+        <v>430</v>
+      </c>
+      <c r="H10" s="3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="3">
+        <v>710</v>
+      </c>
+      <c r="D11" s="3">
+        <v>410</v>
+      </c>
+      <c r="H11" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="3">
+        <v>882</v>
+      </c>
+      <c r="D12" s="3">
+        <v>582</v>
+      </c>
+      <c r="H12" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="3">
+        <v>439</v>
+      </c>
+      <c r="D13" s="3">
+        <v>239</v>
+      </c>
+      <c r="H13" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="3">
+        <v>432</v>
+      </c>
+      <c r="D14" s="3">
+        <v>430</v>
+      </c>
+      <c r="H14" s="3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="3">
+        <v>160</v>
+      </c>
+      <c r="D15" s="3">
+        <v>150</v>
+      </c>
+      <c r="H15" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
+        <v>90</v>
+      </c>
+      <c r="H16" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="3">
+        <v>200</v>
+      </c>
+      <c r="D17" s="3">
+        <v>199</v>
+      </c>
+      <c r="H17" s="3">
+        <f>SUM(H6:H16)</f>
+        <v>4386</v>
+      </c>
+      <c r="I17">
+        <v>111</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="3">
+        <v>240</v>
+      </c>
+      <c r="D18" s="3">
+        <v>130</v>
+      </c>
+      <c r="I18">
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="3">
+        <v>150</v>
+      </c>
+      <c r="D19" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="3">
+        <v>193</v>
+      </c>
+      <c r="D20" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3">
+        <v>410</v>
+      </c>
+      <c r="D21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="3">
+        <v>630</v>
+      </c>
+      <c r="D22" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="3">
+        <v>710</v>
+      </c>
+      <c r="D23" s="3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="3">
+        <v>882</v>
+      </c>
+      <c r="D24" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="3">
+        <v>439</v>
+      </c>
+      <c r="D25" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="3">
+        <v>432</v>
+      </c>
+      <c r="D26" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C27" s="3">
+        <v>772</v>
+      </c>
+      <c r="D27" s="3">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="264">
   <si>
     <t>Start</t>
   </si>
@@ -835,57 +835,6 @@
   </si>
   <si>
     <t>09/30/2017</t>
-  </si>
-  <si>
-    <t>06/ 01/2018</t>
-  </si>
-  <si>
-    <t>11/01/2019</t>
-  </si>
-  <si>
-    <t>12/01/2019</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t>02/01/2020</t>
-  </si>
-  <si>
-    <t>03/01/2020</t>
-  </si>
-  <si>
-    <t>04/01/2020</t>
-  </si>
-  <si>
-    <t>05/01/2020</t>
-  </si>
-  <si>
-    <t>06/01/2020</t>
-  </si>
-  <si>
-    <t>06/30/2020</t>
-  </si>
-  <si>
-    <t>05/31/2020</t>
-  </si>
-  <si>
-    <t>04/30/2020</t>
-  </si>
-  <si>
-    <t>02/28/2020</t>
-  </si>
-  <si>
-    <t>01/31/2020</t>
-  </si>
-  <si>
-    <t>12/31/2019</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>2019-9</t>
   </si>
 </sst>
 </file>
@@ -1478,10 +1427,10 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>50</v>
@@ -1492,10 +1441,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -1506,10 +1455,10 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
@@ -1520,10 +1469,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1534,10 +1483,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1548,10 +1497,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1561,11 +1510,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
+      <c r="A8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1576,10 +1525,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1588,10 +1537,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1600,10 +1549,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1612,10 +1561,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1624,10 +1573,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1636,10 +1585,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1647,10 +1596,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>49</v>
@@ -1658,10 +1607,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>48</v>
@@ -1669,10 +1618,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1680,10 +1629,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -1691,21 +1640,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>233</v>
+      <c r="A20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -1713,10 +1662,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -1724,10 +1673,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -1735,10 +1684,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -1746,10 +1695,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -1757,10 +1706,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -1768,10 +1717,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -1818,10 +1767,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>46</v>
@@ -1829,10 +1778,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>47</v>
@@ -1840,10 +1789,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>51</v>
@@ -1851,10 +1800,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -1862,10 +1811,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -1873,21 +1822,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
+      <c r="A8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1895,10 +1844,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -1906,10 +1855,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1917,10 +1866,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -1928,10 +1877,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -1939,10 +1888,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -1950,10 +1899,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
@@ -1961,10 +1910,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>47</v>
@@ -1972,10 +1921,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>51</v>
@@ -1983,10 +1932,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -1994,10 +1943,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>4</v>
@@ -2005,21 +1954,21 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>233</v>
+      <c r="A20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -2027,10 +1976,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2038,10 +1987,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -2049,10 +1998,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -2060,10 +2009,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
@@ -2071,10 +2020,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -2082,10 +2031,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>13</v>
@@ -2101,7 +2050,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
@@ -2135,10 +2084,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -2155,10 +2104,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -2175,10 +2124,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>26</v>
@@ -2195,10 +2144,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
@@ -2215,10 +2164,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>29</v>
@@ -2235,10 +2184,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
@@ -2254,11 +2203,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
+      <c r="A8" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>30</v>
@@ -2275,10 +2224,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -2295,10 +2244,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -2315,10 +2264,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>10</v>
@@ -2335,10 +2284,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -2355,10 +2304,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -2375,10 +2324,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>44</v>
@@ -2395,10 +2344,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -2415,10 +2364,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>26</v>
@@ -2435,10 +2384,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -2455,10 +2404,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>29</v>
@@ -2475,10 +2424,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>31</v>
@@ -2494,11 +2443,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>233</v>
+      <c r="A20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>30</v>
@@ -2515,10 +2464,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
@@ -2535,10 +2484,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -2555,10 +2504,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
@@ -2575,10 +2524,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -2595,10 +2544,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>12</v>
@@ -2615,10 +2564,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>44</v>
@@ -2832,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,9 +2876,7 @@
       <c r="D6" s="3">
         <v>120</v>
       </c>
-      <c r="H6" s="3">
-        <v>100</v>
-      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -2944,9 +2891,7 @@
       <c r="D7" s="3">
         <v>100</v>
       </c>
-      <c r="H7" s="3">
-        <v>200</v>
-      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -2961,9 +2906,7 @@
       <c r="D8" s="3">
         <v>93</v>
       </c>
-      <c r="H8" s="3">
-        <v>240</v>
-      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -2978,9 +2921,7 @@
       <c r="D9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>150</v>
-      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2995,9 +2936,7 @@
       <c r="D10" s="3">
         <v>430</v>
       </c>
-      <c r="H10" s="3">
-        <v>193</v>
-      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -3012,9 +2951,7 @@
       <c r="D11" s="3">
         <v>410</v>
       </c>
-      <c r="H11" s="3">
-        <v>410</v>
-      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3029,9 +2966,7 @@
       <c r="D12" s="3">
         <v>582</v>
       </c>
-      <c r="H12" s="3">
-        <v>630</v>
-      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3046,9 +2981,7 @@
       <c r="D13" s="3">
         <v>239</v>
       </c>
-      <c r="H13" s="3">
-        <v>710</v>
-      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -3063,9 +2996,7 @@
       <c r="D14" s="3">
         <v>430</v>
       </c>
-      <c r="H14" s="3">
-        <v>882</v>
-      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3080,9 +3011,7 @@
       <c r="D15" s="3">
         <v>150</v>
       </c>
-      <c r="H15" s="3">
-        <v>439</v>
-      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -3097,11 +3026,9 @@
       <c r="D16" s="3">
         <v>90</v>
       </c>
-      <c r="H16" s="3">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>242</v>
       </c>
@@ -3114,21 +3041,9 @@
       <c r="D17" s="3">
         <v>199</v>
       </c>
-      <c r="H17" s="3">
-        <f>SUM(H6:H16)</f>
-        <v>4386</v>
-      </c>
-      <c r="I17">
-        <v>111</v>
-      </c>
-      <c r="J17">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>244</v>
       </c>
@@ -3141,14 +3056,8 @@
       <c r="D18" s="3">
         <v>130</v>
       </c>
-      <c r="I18">
-        <v>22</v>
-      </c>
-      <c r="J18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>246</v>
       </c>
@@ -3162,7 +3071,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>248</v>
       </c>
@@ -3176,7 +3085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>250</v>
       </c>
@@ -3190,7 +3099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>252</v>
       </c>
@@ -3204,7 +3113,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>254</v>
       </c>
@@ -3218,7 +3127,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>256</v>
       </c>
@@ -3232,7 +3141,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>258</v>
       </c>
@@ -3246,7 +3155,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>260</v>
       </c>
@@ -3260,7 +3169,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
@@ -3286,7 +3195,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
-    <sheet name="Water" sheetId="2" r:id="rId2"/>
-    <sheet name="Waste" sheetId="3" r:id="rId3"/>
-    <sheet name="LEEDData" sheetId="7" r:id="rId4"/>
-    <sheet name="Improvement" sheetId="10" r:id="rId5"/>
-    <sheet name="HumanExp" sheetId="4" r:id="rId6"/>
-    <sheet name="Promocode" sheetId="8" r:id="rId7"/>
+    <sheet name="CityDI" sheetId="11" r:id="rId2"/>
+    <sheet name="Water" sheetId="2" r:id="rId3"/>
+    <sheet name="Waste" sheetId="3" r:id="rId4"/>
+    <sheet name="LEEDData" sheetId="7" r:id="rId5"/>
+    <sheet name="Improvement" sheetId="10" r:id="rId6"/>
+    <sheet name="HumanExp" sheetId="4" r:id="rId7"/>
+    <sheet name="Promocode" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Dates">'[1]CO2 Readings'!$15:$15</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="283">
   <si>
     <t>Start</t>
   </si>
@@ -835,6 +836,63 @@
   </si>
   <si>
     <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Reading5</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.9</t>
   </si>
 </sst>
 </file>
@@ -846,7 +904,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +942,13 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -967,7 +1032,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -993,6 +1058,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1401,7 +1467,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,6 +1805,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C26"/>
@@ -2045,13 +2256,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L8"/>
@@ -2779,7 +2990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3189,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J26"/>
@@ -3733,7 +3944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationArc\AutomationArc\AutomationArc\ARCDataTemplete\"/>
     </mc:Choice>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="283">
   <si>
     <t>Start</t>
   </si>
@@ -904,7 +904,7 @@
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,9 +1472,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,9 +1960,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2267,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2822,16 +2822,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2734375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.5234375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.37890625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.34765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,19 +2889,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3000,8 +3000,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3411,13 +3411,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.140625" style="3" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" style="3" width="9.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3954,18 +3954,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
+++ b/AutomationArc/ARCDataTemplete/ExcelTemplateDataVerificationSheet.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="284">
   <si>
     <t>Start</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -2889,19 +2892,19 @@
         <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
